--- a/Tableaux.xlsx
+++ b/Tableaux.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>B</t>
   </si>
@@ -168,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -824,11 +825,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -854,45 +881,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1010,19 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1058,11 +1034,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1494,25 +1527,25 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="2:16" ht="39.75" thickBot="1">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="3"/>
@@ -1525,25 +1558,25 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="2:16" ht="26.25">
-      <c r="B5" s="39">
-        <v>0</v>
-      </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>1</v>
-      </c>
-      <c r="G5" s="40">
-        <v>1</v>
-      </c>
-      <c r="H5" s="41" t="s">
+      <c r="B5" s="26">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1558,25 +1591,25 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B6" s="42">
-        <v>0</v>
-      </c>
-      <c r="C6" s="43">
-        <v>0</v>
-      </c>
-      <c r="D6" s="43">
-        <v>0</v>
-      </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43">
-        <v>1</v>
-      </c>
-      <c r="H6" s="44" t="s">
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="3"/>
@@ -1589,25 +1622,25 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B7" s="45">
-        <v>0</v>
-      </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
-      <c r="D7" s="46">
-        <v>1</v>
-      </c>
-      <c r="E7" s="46">
-        <v>0</v>
-      </c>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1</v>
-      </c>
-      <c r="H7" s="47" t="s">
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>1</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="3"/>
@@ -1620,58 +1653,58 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="42">
-        <v>0</v>
-      </c>
-      <c r="C8" s="43">
-        <v>0</v>
-      </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8" s="43">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43">
-        <v>1</v>
-      </c>
-      <c r="G8" s="43">
-        <v>1</v>
-      </c>
-      <c r="H8" s="48" t="s">
+      <c r="B8" s="29">
+        <v>0</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B9" s="45">
-        <v>0</v>
-      </c>
-      <c r="C9" s="46">
-        <v>1</v>
-      </c>
-      <c r="D9" s="46">
-        <v>0</v>
-      </c>
-      <c r="E9" s="46">
-        <v>0</v>
-      </c>
-      <c r="F9" s="46">
-        <v>1</v>
-      </c>
-      <c r="G9" s="46">
-        <v>1</v>
-      </c>
-      <c r="H9" s="47" t="s">
+      <c r="B9" s="32">
+        <v>0</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="6" t="s">
@@ -1688,58 +1721,58 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B10" s="42">
-        <v>0</v>
-      </c>
-      <c r="C10" s="43">
-        <v>1</v>
-      </c>
-      <c r="D10" s="43">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
-        <v>1</v>
-      </c>
-      <c r="F10" s="43">
-        <v>0</v>
-      </c>
-      <c r="G10" s="43">
-        <v>1</v>
-      </c>
-      <c r="H10" s="48" t="s">
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B11" s="45">
-        <v>0</v>
-      </c>
-      <c r="C11" s="46">
-        <v>1</v>
-      </c>
-      <c r="D11" s="46">
-        <v>1</v>
-      </c>
-      <c r="E11" s="46">
-        <v>0</v>
-      </c>
-      <c r="F11" s="46">
-        <v>1</v>
-      </c>
-      <c r="G11" s="46">
-        <v>0</v>
-      </c>
-      <c r="H11" s="47">
+      <c r="B11" s="32">
+        <v>0</v>
+      </c>
+      <c r="C11" s="33">
+        <v>1</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -1755,58 +1788,58 @@
       <c r="P11" s="3"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B12" s="42">
-        <v>0</v>
-      </c>
-      <c r="C12" s="43">
-        <v>1</v>
-      </c>
-      <c r="D12" s="43">
-        <v>1</v>
-      </c>
-      <c r="E12" s="43">
-        <v>1</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-      <c r="H12" s="48">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="B12" s="29">
+        <v>0</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1">
-      <c r="B13" s="45">
-        <v>1</v>
-      </c>
-      <c r="C13" s="46">
-        <v>0</v>
-      </c>
-      <c r="D13" s="46">
-        <v>0</v>
-      </c>
-      <c r="E13" s="46">
-        <v>0</v>
-      </c>
-      <c r="F13" s="46">
-        <v>1</v>
-      </c>
-      <c r="G13" s="46">
-        <v>1</v>
-      </c>
-      <c r="H13" s="47" t="s">
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -1820,25 +1853,25 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="42">
-        <v>1</v>
-      </c>
-      <c r="C14" s="43">
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
-        <v>1</v>
-      </c>
-      <c r="F14" s="43">
-        <v>1</v>
-      </c>
-      <c r="G14" s="43">
-        <v>0</v>
-      </c>
-      <c r="H14" s="44">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
         <v>1</v>
       </c>
       <c r="I14" s="3"/>
@@ -1851,25 +1884,25 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="45">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>0</v>
-      </c>
-      <c r="D15" s="46">
-        <v>1</v>
-      </c>
-      <c r="E15" s="46">
-        <v>0</v>
-      </c>
-      <c r="F15" s="46">
-        <v>0</v>
-      </c>
-      <c r="G15" s="46">
-        <v>1</v>
-      </c>
-      <c r="H15" s="47" t="s">
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15" s="33">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33">
+        <v>1</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>1</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="3"/>
@@ -1882,25 +1915,25 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="42">
-        <v>1</v>
-      </c>
-      <c r="C16" s="43">
-        <v>0</v>
-      </c>
-      <c r="D16" s="43">
-        <v>1</v>
-      </c>
-      <c r="E16" s="43">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43">
-        <v>1</v>
-      </c>
-      <c r="G16" s="43">
-        <v>0</v>
-      </c>
-      <c r="H16" s="44">
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="31">
         <v>1</v>
       </c>
       <c r="I16" s="3"/>
@@ -1913,25 +1946,25 @@
       <c r="P16" s="3"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="49">
-        <v>1</v>
-      </c>
-      <c r="C17" s="46">
-        <v>1</v>
-      </c>
-      <c r="D17" s="46">
-        <v>0</v>
-      </c>
-      <c r="E17" s="46">
-        <v>0</v>
-      </c>
-      <c r="F17" s="46">
-        <v>1</v>
-      </c>
-      <c r="G17" s="46">
-        <v>1</v>
-      </c>
-      <c r="H17" s="47" t="s">
+      <c r="B17" s="36">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
+        <v>1</v>
+      </c>
+      <c r="G17" s="33">
+        <v>1</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="3"/>
@@ -1944,25 +1977,25 @@
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="42">
-        <v>1</v>
-      </c>
-      <c r="C18" s="43">
-        <v>1</v>
-      </c>
-      <c r="D18" s="43">
-        <v>0</v>
-      </c>
-      <c r="E18" s="43">
-        <v>1</v>
-      </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="43">
-        <v>1</v>
-      </c>
-      <c r="H18" s="44" t="s">
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <v>1</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="3"/>
@@ -1975,25 +2008,25 @@
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="45">
-        <v>1</v>
-      </c>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="46">
-        <v>1</v>
-      </c>
-      <c r="E19" s="46">
-        <v>0</v>
-      </c>
-      <c r="F19" s="46">
-        <v>0</v>
-      </c>
-      <c r="G19" s="46">
-        <v>1</v>
-      </c>
-      <c r="H19" s="47" t="s">
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33">
+        <v>1</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="3"/>
@@ -2006,25 +2039,25 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B20" s="50">
-        <v>1</v>
-      </c>
-      <c r="C20" s="51">
-        <v>1</v>
-      </c>
-      <c r="D20" s="51">
-        <v>1</v>
-      </c>
-      <c r="E20" s="51">
-        <v>1</v>
-      </c>
-      <c r="F20" s="51">
-        <v>1</v>
-      </c>
-      <c r="G20" s="51">
-        <v>0</v>
-      </c>
-      <c r="H20" s="52">
+      <c r="B20" s="37">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38">
+        <v>1</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38">
+        <v>0</v>
+      </c>
+      <c r="H20" s="39">
         <v>1</v>
       </c>
       <c r="I20" s="3"/>
@@ -2084,77 +2117,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:11" ht="39.75" thickBot="1">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B4" s="56">
-        <v>0</v>
-      </c>
-      <c r="C4" s="57">
-        <v>0</v>
-      </c>
-      <c r="D4" s="57">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="43">
+        <v>0</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0</v>
+      </c>
+      <c r="D4" s="44">
+        <v>1</v>
+      </c>
+      <c r="E4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B5" s="33">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1</v>
-      </c>
-      <c r="D5" s="35">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="30">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="36">
-        <v>1</v>
-      </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
         <v>0</v>
       </c>
       <c r="E7" s="2"/>
@@ -2163,42 +2196,42 @@
     <row r="8" spans="2:11" ht="15.75" thickTop="1"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="I10" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="83" t="s">
+      <c r="I10" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="84"/>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
-      <c r="I11" s="65"/>
-      <c r="J11" s="74">
-        <v>0</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="I11" s="79"/>
+      <c r="J11" s="57">
+        <v>0</v>
+      </c>
+      <c r="K11" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="I12" s="80">
-        <v>0</v>
-      </c>
-      <c r="J12" s="76">
-        <v>1</v>
-      </c>
-      <c r="K12" s="77">
+      <c r="I12" s="63">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59">
+        <v>1</v>
+      </c>
+      <c r="K12" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
-      <c r="I13" s="82">
-        <v>1</v>
-      </c>
-      <c r="J13" s="78">
-        <v>0</v>
-      </c>
-      <c r="K13" s="79">
+      <c r="I13" s="65">
+        <v>1</v>
+      </c>
+      <c r="J13" s="61">
+        <v>0</v>
+      </c>
+      <c r="K13" s="62">
         <v>0</v>
       </c>
     </row>
@@ -2219,264 +2252,264 @@
   <dimension ref="B3:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="B5" sqref="B5:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="27.75" thickTop="1" thickBot="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="2:15" ht="27.75" thickTop="1" thickBot="1">
-      <c r="B6" s="30">
-        <v>0</v>
-      </c>
-      <c r="C6" s="31">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="27" thickBot="1">
-      <c r="B7" s="33">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="35">
-        <v>1</v>
-      </c>
-      <c r="E7" s="35">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B8" s="30">
-        <v>0</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="B8" s="17">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B9" s="33">
-        <v>0</v>
-      </c>
-      <c r="C9" s="34">
-        <v>1</v>
-      </c>
-      <c r="D9" s="35">
-        <v>1</v>
-      </c>
-      <c r="E9" s="35">
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="M9" s="64" t="s">
+      <c r="K9" s="84"/>
+      <c r="M9" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="62"/>
+      <c r="O9" s="84"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B10" s="30">
-        <v>1</v>
-      </c>
-      <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66">
-        <v>0</v>
-      </c>
-      <c r="K10" s="67">
-        <v>1</v>
-      </c>
-      <c r="M10" s="65"/>
-      <c r="N10" s="74">
-        <v>0</v>
-      </c>
-      <c r="O10" s="75">
+      <c r="I10" s="86"/>
+      <c r="J10" s="49">
+        <v>0</v>
+      </c>
+      <c r="K10" s="50">
+        <v>1</v>
+      </c>
+      <c r="M10" s="79"/>
+      <c r="N10" s="57">
+        <v>0</v>
+      </c>
+      <c r="O10" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B11" s="33">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34">
-        <v>0</v>
-      </c>
-      <c r="D11" s="35">
-        <v>1</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
         <v>1</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="63">
-        <v>0</v>
-      </c>
-      <c r="K11" s="69">
-        <v>1</v>
-      </c>
-      <c r="M11" s="80" t="s">
+      <c r="J11" s="48">
+        <v>0</v>
+      </c>
+      <c r="K11" s="52">
+        <v>1</v>
+      </c>
+      <c r="M11" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="76">
-        <v>0</v>
-      </c>
-      <c r="O11" s="77">
+      <c r="N11" s="59">
+        <v>0</v>
+      </c>
+      <c r="O11" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B12" s="30">
-        <v>1</v>
-      </c>
-      <c r="C12" s="31">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="63">
-        <v>1</v>
-      </c>
-      <c r="K12" s="69">
-        <v>1</v>
-      </c>
-      <c r="M12" s="81" t="s">
+      <c r="J12" s="48">
+        <v>1</v>
+      </c>
+      <c r="K12" s="52">
+        <v>1</v>
+      </c>
+      <c r="M12" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="76">
-        <v>1</v>
-      </c>
-      <c r="O12" s="77">
+      <c r="N12" s="59">
+        <v>1</v>
+      </c>
+      <c r="O12" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B13" s="36">
-        <v>1</v>
-      </c>
-      <c r="C13" s="37">
-        <v>1</v>
-      </c>
-      <c r="D13" s="38">
-        <v>1</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25">
         <v>1</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="63">
-        <v>1</v>
-      </c>
-      <c r="K13" s="69">
-        <v>1</v>
-      </c>
-      <c r="M13" s="81" t="s">
+      <c r="J13" s="48">
+        <v>1</v>
+      </c>
+      <c r="K13" s="52">
+        <v>1</v>
+      </c>
+      <c r="M13" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="76">
-        <v>1</v>
-      </c>
-      <c r="O13" s="77">
+      <c r="N13" s="59">
+        <v>1</v>
+      </c>
+      <c r="O13" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="72">
-        <v>1</v>
-      </c>
-      <c r="K14" s="73">
-        <v>1</v>
-      </c>
-      <c r="M14" s="82" t="s">
+      <c r="J14" s="55">
+        <v>1</v>
+      </c>
+      <c r="K14" s="56">
+        <v>1</v>
+      </c>
+      <c r="M14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="78">
-        <v>1</v>
-      </c>
-      <c r="O14" s="79">
+      <c r="N14" s="61">
+        <v>1</v>
+      </c>
+      <c r="O14" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="M15" s="23"/>
+      <c r="M15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2488,4 +2521,308 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B7:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tableaux.xlsx
+++ b/Tableaux.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>B</t>
   </si>
@@ -128,13 +129,49 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>X'Y'</t>
+  </si>
+  <si>
+    <t>B' C'</t>
+  </si>
+  <si>
+    <t>B' X</t>
+  </si>
+  <si>
+    <t>C' Y</t>
+  </si>
+  <si>
+    <t>!X !Y</t>
+  </si>
+  <si>
+    <t>!B !C</t>
+  </si>
+  <si>
+    <t>C!X</t>
+  </si>
+  <si>
+    <t>B !Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +185,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +213,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -851,11 +902,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1034,6 +1094,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1096,6 +1166,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,6 +1306,794 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="3686175"/>
+          <a:ext cx="457200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86555</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6146967" y="4851217"/>
+          <a:ext cx="2390675" cy="1663700"/>
+          <a:chOff x="6122647" y="4839057"/>
+          <a:chExt cx="2390675" cy="1663700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Oval 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6184562" y="5237737"/>
+            <a:ext cx="390525" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Oval 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7400520" y="5256787"/>
+            <a:ext cx="390525" cy="895350"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="dashDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Oval 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="7198922" y="4209089"/>
+            <a:ext cx="219076" cy="2371625"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cmpd="tri">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Oval 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7211640" y="5275836"/>
+            <a:ext cx="1301682" cy="438151"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Freeform 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="344203">
+            <a:off x="6650035" y="4839057"/>
+            <a:ext cx="1226515" cy="711200"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1323975"/>
+              <a:gd name="connsiteY0" fmla="*/ 174625 h 711200"/>
+              <a:gd name="connsiteX1" fmla="*/ 228600 w 1323975"/>
+              <a:gd name="connsiteY1" fmla="*/ 622300 h 711200"/>
+              <a:gd name="connsiteX2" fmla="*/ 1162050 w 1323975"/>
+              <a:gd name="connsiteY2" fmla="*/ 622300 h 711200"/>
+              <a:gd name="connsiteX3" fmla="*/ 1200150 w 1323975"/>
+              <a:gd name="connsiteY3" fmla="*/ 88900 h 711200"/>
+              <a:gd name="connsiteX4" fmla="*/ 1181100 w 1323975"/>
+              <a:gd name="connsiteY4" fmla="*/ 88900 h 711200"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1323975" h="711200">
+                <a:moveTo>
+                  <a:pt x="0" y="174625"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="17462" y="361156"/>
+                  <a:pt x="34925" y="547688"/>
+                  <a:pt x="228600" y="622300"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="422275" y="696912"/>
+                  <a:pt x="1000125" y="711200"/>
+                  <a:pt x="1162050" y="622300"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1323975" y="533400"/>
+                  <a:pt x="1196975" y="177800"/>
+                  <a:pt x="1200150" y="88900"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1203325" y="0"/>
+                  <a:pt x="1192212" y="44450"/>
+                  <a:pt x="1181100" y="88900"/>
+                </a:cubicBezTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Freeform 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10958682">
+            <a:off x="6734139" y="5791557"/>
+            <a:ext cx="1226514" cy="711200"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1323975"/>
+              <a:gd name="connsiteY0" fmla="*/ 174625 h 711200"/>
+              <a:gd name="connsiteX1" fmla="*/ 228600 w 1323975"/>
+              <a:gd name="connsiteY1" fmla="*/ 622300 h 711200"/>
+              <a:gd name="connsiteX2" fmla="*/ 1162050 w 1323975"/>
+              <a:gd name="connsiteY2" fmla="*/ 622300 h 711200"/>
+              <a:gd name="connsiteX3" fmla="*/ 1200150 w 1323975"/>
+              <a:gd name="connsiteY3" fmla="*/ 88900 h 711200"/>
+              <a:gd name="connsiteX4" fmla="*/ 1181100 w 1323975"/>
+              <a:gd name="connsiteY4" fmla="*/ 88900 h 711200"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1323975" h="711200">
+                <a:moveTo>
+                  <a:pt x="0" y="174625"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="17462" y="361156"/>
+                  <a:pt x="34925" y="547688"/>
+                  <a:pt x="228600" y="622300"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="422275" y="696912"/>
+                  <a:pt x="1000125" y="711200"/>
+                  <a:pt x="1162050" y="622300"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1323975" y="533400"/>
+                  <a:pt x="1196975" y="177800"/>
+                  <a:pt x="1200150" y="88900"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1203325" y="0"/>
+                  <a:pt x="1192212" y="44450"/>
+                  <a:pt x="1181100" y="88900"/>
+                </a:cubicBezTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="en-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6906986" y="2988129"/>
+          <a:ext cx="212271" cy="794657"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>70757</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6776357" y="3004458"/>
+          <a:ext cx="2345871" cy="179615"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705601" y="3189514"/>
+          <a:ext cx="1230085" cy="364672"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103414</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arc 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8637814" y="3369129"/>
+          <a:ext cx="1039585" cy="413657"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 5279435"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Arc 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6183086" y="3380015"/>
+          <a:ext cx="1039585" cy="413657"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 5279435"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1500,7 +2388,7 @@
   <dimension ref="B3:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F20"/>
+      <selection activeCell="B4" sqref="B4:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,12 +2562,12 @@
       <c r="H8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1742,12 +2630,12 @@
       <c r="H10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1809,12 +2697,12 @@
       <c r="H12" s="35">
         <v>0</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2117,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
@@ -2147,10 +3035,10 @@
       <c r="D4" s="44">
         <v>1</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="77"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
       <c r="B5" s="20">
@@ -2162,10 +3050,10 @@
       <c r="D5" s="22">
         <v>0</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="75"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
       <c r="B6" s="17">
@@ -2196,16 +3084,16 @@
     <row r="8" spans="2:11" ht="15.75" thickTop="1"/>
     <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="I10" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="76" t="s">
+      <c r="I10" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="77"/>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
-      <c r="I11" s="79"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="57">
         <v>0</v>
       </c>
@@ -2259,12 +3147,12 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:15" ht="27.75" thickTop="1" thickBot="1">
@@ -2345,20 +3233,20 @@
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="83" t="s">
+      <c r="J9" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="M9" s="78" t="s">
+      <c r="K9" s="88"/>
+      <c r="M9" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="83" t="s">
+      <c r="N9" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="84"/>
+      <c r="O9" s="88"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" thickBot="1">
       <c r="B10" s="17">
@@ -2374,14 +3262,14 @@
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="49">
         <v>0</v>
       </c>
       <c r="K10" s="50">
         <v>1</v>
       </c>
-      <c r="M10" s="79"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="57">
         <v>0</v>
       </c>
@@ -2525,304 +3413,832 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:F23"/>
+  <dimension ref="B6:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="I20" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
+    <row r="6" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:6" ht="39.75" thickBot="1">
+      <c r="B7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="B9" s="29">
+        <v>0</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="32">
+        <v>0</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="29">
+        <v>0</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="B12" s="32">
+        <v>0</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="B13" s="29">
+        <v>0</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="B14" s="32">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <v>1</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16" s="33">
+        <v>0</v>
+      </c>
+      <c r="D16" s="33">
+        <v>0</v>
+      </c>
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="36">
+        <v>1</v>
+      </c>
+      <c r="C20" s="33">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33">
+        <v>0</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="29">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="32">
+        <v>1</v>
+      </c>
+      <c r="C22" s="33">
+        <v>1</v>
+      </c>
+      <c r="D22" s="33">
+        <v>1</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0</v>
+      </c>
+      <c r="F22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B23" s="37">
+        <v>1</v>
+      </c>
+      <c r="C23" s="38">
+        <v>1</v>
+      </c>
+      <c r="D23" s="38">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="J25" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="J26" s="91"/>
+      <c r="K26" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="J27" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="J28" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="J29" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="S29" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="J30" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:N25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D9:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="9" spans="4:15" ht="15.75" thickBot="1"/>
+    <row r="10" spans="4:15" ht="39.75" thickBot="1">
+      <c r="D10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15">
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15">
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15">
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="92">
+        <v>1</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+    </row>
+    <row r="14" spans="4:15">
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <v>1</v>
+      </c>
+      <c r="H14" s="92">
+        <v>1</v>
+      </c>
+      <c r="K14" s="93"/>
+      <c r="L14" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15">
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="92">
+        <v>1</v>
+      </c>
+      <c r="K15" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="59">
+        <v>1</v>
+      </c>
+      <c r="M15" s="59">
+        <v>1</v>
+      </c>
+      <c r="N15" s="59">
+        <v>1</v>
+      </c>
+      <c r="O15" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="92">
+        <v>1</v>
+      </c>
+      <c r="K16" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="59">
+        <v>1</v>
+      </c>
+      <c r="M16" s="59">
+        <v>1</v>
+      </c>
+      <c r="N16" s="59">
+        <v>0</v>
+      </c>
+      <c r="O16" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="D17" s="96">
+        <v>0</v>
+      </c>
+      <c r="E17" s="97">
+        <v>1</v>
+      </c>
+      <c r="F17" s="97">
+        <v>1</v>
+      </c>
+      <c r="G17" s="97">
+        <v>0</v>
+      </c>
+      <c r="H17" s="97">
+        <v>0</v>
+      </c>
+      <c r="K17" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="59">
+        <v>1</v>
+      </c>
+      <c r="M17" s="59">
+        <v>1</v>
+      </c>
+      <c r="N17" s="59">
+        <v>0</v>
+      </c>
+      <c r="O17" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" s="96">
+        <v>0</v>
+      </c>
+      <c r="E18" s="97">
+        <v>1</v>
+      </c>
+      <c r="F18" s="97">
+        <v>1</v>
+      </c>
+      <c r="G18" s="97">
+        <v>1</v>
+      </c>
+      <c r="H18" s="97">
+        <v>0</v>
+      </c>
+      <c r="K18" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="59">
+        <v>1</v>
+      </c>
+      <c r="M18" s="59">
+        <v>0</v>
+      </c>
+      <c r="N18" s="59">
+        <v>0</v>
+      </c>
+      <c r="O18" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15">
+      <c r="D19" s="96">
+        <v>1</v>
+      </c>
+      <c r="E19" s="97">
+        <v>0</v>
+      </c>
+      <c r="F19" s="97">
+        <v>0</v>
+      </c>
+      <c r="G19" s="97">
+        <v>0</v>
+      </c>
+      <c r="H19" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15">
+      <c r="D20" s="96">
+        <v>1</v>
+      </c>
+      <c r="E20" s="97">
+        <v>0</v>
+      </c>
+      <c r="F20" s="97">
+        <v>0</v>
+      </c>
+      <c r="G20" s="97">
+        <v>1</v>
+      </c>
+      <c r="H20" s="97">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="D21" s="96">
+        <v>1</v>
+      </c>
+      <c r="E21" s="97">
+        <v>0</v>
+      </c>
+      <c r="F21" s="97">
+        <v>1</v>
+      </c>
+      <c r="G21" s="97">
+        <v>0</v>
+      </c>
+      <c r="H21" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="D22" s="96">
+        <v>1</v>
+      </c>
+      <c r="E22" s="97">
+        <v>0</v>
+      </c>
+      <c r="F22" s="97">
+        <v>1</v>
+      </c>
+      <c r="G22" s="97">
+        <v>1</v>
+      </c>
+      <c r="H22" s="97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="D23" s="96">
+        <v>1</v>
+      </c>
+      <c r="E23" s="97">
+        <v>1</v>
+      </c>
+      <c r="F23" s="97">
+        <v>0</v>
+      </c>
+      <c r="G23" s="97">
+        <v>0</v>
+      </c>
+      <c r="H23" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="D24" s="96">
+        <v>1</v>
+      </c>
+      <c r="E24" s="97">
+        <v>1</v>
+      </c>
+      <c r="F24" s="97">
+        <v>0</v>
+      </c>
+      <c r="G24" s="97">
+        <v>1</v>
+      </c>
+      <c r="H24" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="D25" s="96">
+        <v>1</v>
+      </c>
+      <c r="E25" s="97">
+        <v>1</v>
+      </c>
+      <c r="F25" s="97">
+        <v>1</v>
+      </c>
+      <c r="G25" s="97">
+        <v>0</v>
+      </c>
+      <c r="H25" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" ht="15.75" thickBot="1">
+      <c r="D26" s="98">
+        <v>1</v>
+      </c>
+      <c r="E26" s="99">
+        <v>1</v>
+      </c>
+      <c r="F26" s="99">
+        <v>1</v>
+      </c>
+      <c r="G26" s="99">
+        <v>1</v>
+      </c>
+      <c r="H26" s="99">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="K13:K14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>